--- a/public/csv/csv_template_mctesting.xlsx
+++ b/public/csv/csv_template_mctesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyber10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mctesting\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ThS5CzrTs2SRgDvyNBXidlixgwn0fvMXgBLJzNBJsJM9zs8uAp17SHIuFPl/27PL1eIXWmxhEyGXRNScycKqhA==" workbookSaltValue="0kmSSjKFcb9gHADVQj4fiQ==" workbookSpinCount="100000" lockStructure="1"/>
@@ -358,7 +358,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
